--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H2">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.20304305489444</v>
+        <v>2.179771666666667</v>
       </c>
       <c r="N2">
-        <v>4.20304305489444</v>
+        <v>6.539315</v>
       </c>
       <c r="O2">
-        <v>0.6011604688443649</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="P2">
-        <v>0.6011604688443649</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="Q2">
-        <v>25.24718063534866</v>
+        <v>22.47805464722722</v>
       </c>
       <c r="R2">
-        <v>25.24718063534866</v>
+        <v>202.302491825045</v>
       </c>
       <c r="S2">
-        <v>0.3035977545413607</v>
+        <v>0.1487912066205221</v>
       </c>
       <c r="T2">
-        <v>0.3035977545413607</v>
+        <v>0.1487912066205221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H3">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.78850624470292</v>
+        <v>4.237801</v>
       </c>
       <c r="N3">
-        <v>2.78850624470292</v>
+        <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.3988395311556351</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="P3">
-        <v>0.3988395311556351</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="Q3">
-        <v>16.75022595374782</v>
+        <v>43.70068843391434</v>
       </c>
       <c r="R3">
-        <v>16.75022595374782</v>
+        <v>393.3061959052291</v>
       </c>
       <c r="S3">
-        <v>0.2014217373839466</v>
+        <v>0.289272281978</v>
       </c>
       <c r="T3">
-        <v>0.2014217373839466</v>
+        <v>0.289272281978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.10249084289452</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H4">
-        <v>4.10249084289452</v>
+        <v>30.936343</v>
       </c>
       <c r="I4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.20304305489444</v>
+        <v>2.860789</v>
       </c>
       <c r="N4">
-        <v>4.20304305489444</v>
+        <v>8.582367000000001</v>
       </c>
       <c r="O4">
-        <v>0.6011604688443649</v>
+        <v>0.3083291105451987</v>
       </c>
       <c r="P4">
-        <v>0.6011604688443649</v>
+        <v>0.3083291105451986</v>
       </c>
       <c r="Q4">
-        <v>17.24294564499585</v>
+        <v>29.50078325154234</v>
       </c>
       <c r="R4">
-        <v>17.24294564499585</v>
+        <v>265.5070492638811</v>
       </c>
       <c r="S4">
-        <v>0.2073466996219787</v>
+        <v>0.1952774474987289</v>
       </c>
       <c r="T4">
-        <v>0.2073466996219787</v>
+        <v>0.1952774474987289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.10249084289452</v>
+        <v>4.103438</v>
       </c>
       <c r="H5">
-        <v>4.10249084289452</v>
+        <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.78850624470292</v>
+        <v>2.179771666666667</v>
       </c>
       <c r="N5">
-        <v>2.78850624470292</v>
+        <v>6.539315</v>
       </c>
       <c r="O5">
-        <v>0.3988395311556351</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="P5">
-        <v>0.3988395311556351</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="Q5">
-        <v>11.43982133424791</v>
+        <v>8.944557888323333</v>
       </c>
       <c r="R5">
-        <v>11.43982133424791</v>
+        <v>80.50102099490999</v>
       </c>
       <c r="S5">
-        <v>0.1375640361430819</v>
+        <v>0.05920759522020769</v>
       </c>
       <c r="T5">
-        <v>0.1375640361430819</v>
+        <v>0.05920759522020767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H6">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.20304305489444</v>
+        <v>4.237801</v>
       </c>
       <c r="N6">
-        <v>4.20304305489444</v>
+        <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.6011604688443649</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="P6">
-        <v>0.6011604688443649</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="Q6">
-        <v>7.502361215727681</v>
+        <v>17.389553659838</v>
       </c>
       <c r="R6">
-        <v>7.502361215727681</v>
+        <v>156.505982938542</v>
       </c>
       <c r="S6">
-        <v>0.09021601468102548</v>
+        <v>0.1151083895936155</v>
       </c>
       <c r="T6">
-        <v>0.09021601468102548</v>
+        <v>0.1151083895936155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H7">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.78850624470292</v>
+        <v>2.860789</v>
       </c>
       <c r="N7">
-        <v>2.78850624470292</v>
+        <v>8.582367000000001</v>
       </c>
       <c r="O7">
-        <v>0.3988395311556351</v>
+        <v>0.3083291105451987</v>
       </c>
       <c r="P7">
-        <v>0.3988395311556351</v>
+        <v>0.3083291105451986</v>
       </c>
       <c r="Q7">
-        <v>4.977436782550172</v>
+        <v>11.739070292582</v>
       </c>
       <c r="R7">
-        <v>4.977436782550172</v>
+        <v>105.651632633238</v>
       </c>
       <c r="S7">
-        <v>0.05985375762860655</v>
+        <v>0.0777055871092413</v>
       </c>
       <c r="T7">
-        <v>0.05985375762860655</v>
+        <v>0.07770558710924126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.866538</v>
+      </c>
+      <c r="H8">
+        <v>5.599614</v>
+      </c>
+      <c r="I8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.179771666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.539315</v>
+      </c>
+      <c r="O8">
+        <v>0.2349306639444428</v>
+      </c>
+      <c r="P8">
+        <v>0.2349306639444428</v>
+      </c>
+      <c r="Q8">
+        <v>4.068626647156667</v>
+      </c>
+      <c r="R8">
+        <v>36.61763982441</v>
+      </c>
+      <c r="S8">
+        <v>0.02693186210371304</v>
+      </c>
+      <c r="T8">
+        <v>0.02693186210371303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.866538</v>
+      </c>
+      <c r="H9">
+        <v>5.599614</v>
+      </c>
+      <c r="I9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.237801</v>
+      </c>
+      <c r="N9">
+        <v>12.713403</v>
+      </c>
+      <c r="O9">
+        <v>0.4567402255103586</v>
+      </c>
+      <c r="P9">
+        <v>0.4567402255103586</v>
+      </c>
+      <c r="Q9">
+        <v>7.910016602938001</v>
+      </c>
+      <c r="R9">
+        <v>71.19014942644201</v>
+      </c>
+      <c r="S9">
+        <v>0.05235955393874307</v>
+      </c>
+      <c r="T9">
+        <v>0.05235955393874306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.866538</v>
+      </c>
+      <c r="H10">
+        <v>5.599614</v>
+      </c>
+      <c r="I10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.860789</v>
+      </c>
+      <c r="N10">
+        <v>8.582367000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3083291105451987</v>
+      </c>
+      <c r="P10">
+        <v>0.3083291105451986</v>
+      </c>
+      <c r="Q10">
+        <v>5.339771378482001</v>
+      </c>
+      <c r="R10">
+        <v>48.05794240633801</v>
+      </c>
+      <c r="S10">
+        <v>0.0353460759372285</v>
+      </c>
+      <c r="T10">
+        <v>0.03534607593722849</v>
       </c>
     </row>
   </sheetData>
